--- a/ajudatcc/rique.xlsx
+++ b/ajudatcc/rique.xlsx
@@ -22,28 +22,28 @@
     <t>qnt</t>
   </si>
   <si>
+    <t>Beridinae</t>
+  </si>
+  <si>
+    <t>Chiromyzinae</t>
+  </si>
+  <si>
+    <t>Chrysochlorininae</t>
+  </si>
+  <si>
+    <t>Clitellariinae</t>
+  </si>
+  <si>
+    <t>Hermetiinae</t>
+  </si>
+  <si>
     <t>Pachygastrinae</t>
   </si>
   <si>
     <t>Sarginae</t>
   </si>
   <si>
-    <t>Clitellariinae</t>
-  </si>
-  <si>
-    <t>Hermetiinae</t>
-  </si>
-  <si>
-    <t>Beridinae</t>
-  </si>
-  <si>
-    <t>Chiromyzinae</t>
-  </si>
-  <si>
     <t>Stratiomyinae</t>
-  </si>
-  <si>
-    <t>Chrysochlorininae</t>
   </si>
 </sst>
 </file>
@@ -51,13 +51,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -102,19 +108,19 @@
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -444,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
@@ -452,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
@@ -460,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
@@ -468,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
@@ -476,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
@@ -484,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
@@ -492,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
